--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_82.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,246 +488,263 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -731,474 +753,447 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1302083333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C', 'G', 'D'], ['C', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['D', 'A', 'E'], ['D/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:00:59.224321', '0:01:05.737518'), ('0:00:23.117291', '0:00:29.711758')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:32.746870', '0:01:36.589773'), ('0:01:32.073492', '0:01:35.022426')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:01:45', '0:01:48.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.208150', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.98, 20.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.6, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:03:16.576000', '0:04:10.057000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
